--- a/doc/Effort_Estimation/DAGoPERT_Semester_5.xlsx
+++ b/doc/Effort_Estimation/DAGoPERT_Semester_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebek\Documents\GitHub\theObserver\doc\Effort_Estimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3FCA7A-CDC4-4F0B-B113-CB2049DF5AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D35C10-CB5A-411F-B56E-1D08D55BCE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1794,49 +1794,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.72412040603780026</c:v>
+                  <c:v>0.71784753224360842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73493705986419233</c:v>
+                  <c:v>0.72904742063590944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73914353635223362</c:v>
+                  <c:v>0.73340293278847102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7415472372025429</c:v>
+                  <c:v>0.73589179687564898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74410116935599657</c:v>
+                  <c:v>0.73853621496827571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74635463890316156</c:v>
+                  <c:v>0.74086952505000503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75041088408805856</c:v>
+                  <c:v>0.74506948319711797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75416666666666687</c:v>
+                  <c:v>0.74895833333333361</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75792244924527519</c:v>
+                  <c:v>0.75284718346954915</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76197869443017219</c:v>
+                  <c:v>0.75704714161666209</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76423216397733718</c:v>
+                  <c:v>0.75938045169839152</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76678609613079085</c:v>
+                  <c:v>0.76202486979101813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76918979698110013</c:v>
+                  <c:v>0.76451373387819621</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77339627346914142</c:v>
+                  <c:v>0.76886924603075768</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.78421292729553349</c:v>
+                  <c:v>0.78006913442305881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,8 +3139,8 @@
   </sheetPr>
   <dimension ref="A1:Q358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3252,30 +3252,30 @@
       </c>
       <c r="F3" s="108">
         <f>SUM(F4:F10001)</f>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G3" s="108">
         <f>SUM(G4:G10001)</f>
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H3" s="109"/>
       <c r="I3" s="124">
         <f>SUM(I4:I10001)</f>
-        <v>120.6666666666667</v>
+        <v>119.83333333333337</v>
       </c>
       <c r="J3" s="125">
         <f>SUM(J4:J10001)</f>
-        <v>120.6666666666667</v>
+        <v>119.83333333333337</v>
       </c>
       <c r="K3" s="124"/>
       <c r="L3" s="124"/>
       <c r="M3" s="126">
         <f>N3^(1/2)</f>
-        <v>2.4037008503093249</v>
+        <v>2.4888640871780119</v>
       </c>
       <c r="N3" s="127">
         <f>SUM(N4:N10001)</f>
-        <v>5.7777777777777715</v>
+        <v>6.1944444444444393</v>
       </c>
       <c r="O3" s="128"/>
       <c r="P3" s="129"/>
@@ -6481,16 +6481,16 @@
         <v>3</v>
       </c>
       <c r="G71" s="116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H71" s="116"/>
       <c r="I71" s="92">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="J71" s="93">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="K71" s="94">
         <v>99.73</v>
@@ -6501,11 +6501,11 @@
       </c>
       <c r="M71" s="96">
         <f t="shared" si="20"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="N71" s="130">
         <f t="shared" si="21"/>
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="O71" s="131" t="str">
         <f t="shared" si="17"/>
@@ -6531,16 +6531,16 @@
         <v>3</v>
       </c>
       <c r="G72" s="116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H72" s="116"/>
       <c r="I72" s="92">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="J72" s="93">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="K72" s="94">
         <v>99.73</v>
@@ -6551,11 +6551,11 @@
       </c>
       <c r="M72" s="96">
         <f t="shared" si="20"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="N72" s="130">
         <f t="shared" si="21"/>
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="O72" s="131" t="str">
         <f t="shared" si="17"/>
@@ -6578,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G73" s="116">
         <v>5</v>
@@ -6586,11 +6586,11 @@
       <c r="H73" s="116"/>
       <c r="I73" s="92">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J73" s="93">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="K73" s="94">
         <v>99.73</v>
@@ -6678,7 +6678,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G75" s="116">
         <v>5</v>
@@ -6686,11 +6686,11 @@
       <c r="H75" s="116"/>
       <c r="I75" s="92">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J75" s="93">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="K75" s="94">
         <v>99.73</v>
@@ -6781,16 +6781,16 @@
         <v>3</v>
       </c>
       <c r="G77" s="116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H77" s="116"/>
       <c r="I77" s="92">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="J77" s="93">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="K77" s="94">
         <v>99.73</v>
@@ -6801,11 +6801,11 @@
       </c>
       <c r="M77" s="96">
         <f t="shared" si="20"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="N77" s="130">
         <f t="shared" si="21"/>
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="O77" s="131" t="str">
         <f t="shared" si="17"/>
@@ -15454,19 +15454,19 @@
       </c>
       <c r="B4" s="78">
         <f>IF((Spezifikation!J3-(2*Spezifikation!M3))&lt;0,"NV",(Spezifikation!J3-(2*Spezifikation!M3)))</f>
-        <v>115.85926496604804</v>
+        <v>114.85560515897734</v>
       </c>
       <c r="C4" s="78">
         <f>IF(B4="NV",C5,B4/Einstellungen!$B$53)</f>
-        <v>14.482408120756006</v>
+        <v>14.356950644872168</v>
       </c>
       <c r="D4" s="78">
         <f>IF(B4="NV",D5,B4/Einstellungen!$B$54)</f>
-        <v>0.72412040603780026</v>
+        <v>0.71784753224360842</v>
       </c>
       <c r="E4" s="34">
         <f>IF(B4="NV",E5,B4/Einstellungen!$B$55)</f>
-        <v>6.034336716981669E-2</v>
+        <v>5.9820627686967366E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15475,19 +15475,19 @@
       </c>
       <c r="B5" s="78">
         <f>IF((Spezifikation!J3-(1.28*Spezifikation!M3))&lt;0,"NV",(Spezifikation!J3-(1.28*Spezifikation!M3)))</f>
-        <v>117.58992957827077</v>
+        <v>116.64758730174552</v>
       </c>
       <c r="C5" s="78">
         <f>IF(B5="NV",C6,B5/Einstellungen!$B$53)</f>
-        <v>14.698741197283846</v>
+        <v>14.58094841271819</v>
       </c>
       <c r="D5" s="78">
         <f>IF(B5="NV",D6,B5/Einstellungen!$B$54)</f>
-        <v>0.73493705986419233</v>
+        <v>0.72904742063590944</v>
       </c>
       <c r="E5" s="34">
         <f>IF(B5="NV",E6,B5/Einstellungen!$B$55)</f>
-        <v>6.124475498868269E-2</v>
+        <v>6.0753951719659124E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15496,19 +15496,19 @@
       </c>
       <c r="B6" s="78">
         <f>IF((Spezifikation!J3-(1*Spezifikation!M3))&lt;0,"NV",(Spezifikation!J3-(1*Spezifikation!M3)))</f>
-        <v>118.26296581635738</v>
+        <v>117.34446924615536</v>
       </c>
       <c r="C6" s="78">
         <f>IF(B6="NV",C7,B6/Einstellungen!$B$53)</f>
-        <v>14.782870727044672</v>
+        <v>14.668058655769419</v>
       </c>
       <c r="D6" s="78">
         <f>IF(B6="NV",D7,B6/Einstellungen!$B$54)</f>
-        <v>0.73914353635223362</v>
+        <v>0.73340293278847102</v>
       </c>
       <c r="E6" s="34">
         <f>IF(B6="NV",E7,B6/Einstellungen!$B$55)</f>
-        <v>6.1595294696019466E-2</v>
+        <v>6.1116911065705916E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15517,19 +15517,19 @@
       </c>
       <c r="B7" s="78">
         <f>IF((Spezifikation!J3-(0.84*Spezifikation!M3))&lt;0,"NV",(Spezifikation!J3-(0.84*Spezifikation!M3)))</f>
-        <v>118.64755795240687</v>
+        <v>117.74268750010384</v>
       </c>
       <c r="C7" s="78">
         <f>IF(B7="NV",C8,B7/Einstellungen!$B$53)</f>
-        <v>14.830944744050859</v>
+        <v>14.71783593751298</v>
       </c>
       <c r="D7" s="78">
         <f>IF(B7="NV",D8,B7/Einstellungen!$B$54)</f>
-        <v>0.7415472372025429</v>
+        <v>0.73589179687564898</v>
       </c>
       <c r="E7" s="34">
         <f>IF(B7="NV",E8,B7/Einstellungen!$B$55)</f>
-        <v>6.1795603100211913E-2</v>
+        <v>6.1324316406304084E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -15538,19 +15538,19 @@
       </c>
       <c r="B8" s="80">
         <f>IF((Spezifikation!J3-(0.67*Spezifikation!M3))&lt;0,"NV",(Spezifikation!J3-(0.67*Spezifikation!M3)))</f>
-        <v>119.05618709695945</v>
+        <v>118.16579439492411</v>
       </c>
       <c r="C8" s="80">
         <f>IF(B8="NV",C9,B8/Einstellungen!$B$53)</f>
-        <v>14.882023387119931</v>
+        <v>14.770724299365513</v>
       </c>
       <c r="D8" s="80">
         <f>IF(B8="NV",D9,B8/Einstellungen!$B$54)</f>
-        <v>0.74410116935599657</v>
+        <v>0.73853621496827571</v>
       </c>
       <c r="E8" s="80">
         <f>IF(B8="NV",E9,B8/Einstellungen!$B$55)</f>
-        <v>6.2008430779666376E-2</v>
+        <v>6.1544684580689638E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15559,19 +15559,19 @@
       </c>
       <c r="B9" s="78">
         <f>IF((Spezifikation!J3-(0.52*Spezifikation!M3))&lt;0,"NV",(Spezifikation!J3-(0.52*Spezifikation!M3)))</f>
-        <v>119.41674222450585</v>
+        <v>118.53912400800081</v>
       </c>
       <c r="C9" s="78">
         <f>IF(B9="NV",C10,B9/Einstellungen!$B$53)</f>
-        <v>14.927092778063232</v>
+        <v>14.817390501000101</v>
       </c>
       <c r="D9" s="78">
         <f>IF(B9="NV",D10,B9/Einstellungen!$B$54)</f>
-        <v>0.74635463890316156</v>
+        <v>0.74086952505000503</v>
       </c>
       <c r="E9" s="34">
         <f>IF(B9="NV",E10,B9/Einstellungen!$B$55)</f>
-        <v>6.2196219908596799E-2</v>
+        <v>6.1739127087500421E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -15580,19 +15580,19 @@
       </c>
       <c r="B10" s="78">
         <f>IF((Spezifikation!J3-(0.25*Spezifikation!M3))&lt;0,"NV",(Spezifikation!J3-(0.25*Spezifikation!M3)))</f>
-        <v>120.06574145408936</v>
+        <v>119.21111731153887</v>
       </c>
       <c r="C10" s="78">
         <f>IF(B10="NV",C11,B10/Einstellungen!$B$53)</f>
-        <v>15.00821768176117</v>
+        <v>14.901389663942359</v>
       </c>
       <c r="D10" s="78">
         <f>IF(B10="NV",D11,B10/Einstellungen!$B$54)</f>
-        <v>0.75041088408805856</v>
+        <v>0.74506948319711797</v>
       </c>
       <c r="E10" s="34">
         <f>IF(B10="NV",E11,B10/Einstellungen!$B$55)</f>
-        <v>6.2534240340671537E-2</v>
+        <v>6.2089123599759828E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15601,19 +15601,19 @@
       </c>
       <c r="B11" s="80">
         <f>Spezifikation!J3</f>
-        <v>120.6666666666667</v>
+        <v>119.83333333333337</v>
       </c>
       <c r="C11" s="80">
         <f>B11/Einstellungen!B53</f>
-        <v>15.083333333333337</v>
+        <v>14.979166666666671</v>
       </c>
       <c r="D11" s="80">
         <f>B11/Einstellungen!B54</f>
-        <v>0.75416666666666687</v>
+        <v>0.74895833333333361</v>
       </c>
       <c r="E11" s="81">
         <f>B11/Einstellungen!B55</f>
-        <v>6.2847222222222235E-2</v>
+        <v>6.2413194444444466E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -15622,19 +15622,19 @@
       </c>
       <c r="B12" s="78">
         <f>Spezifikation!J3+(0.25*Spezifikation!M3)</f>
-        <v>121.26759187924404</v>
+        <v>120.45554935512787</v>
       </c>
       <c r="C12" s="78">
         <f>B12/Einstellungen!B53</f>
-        <v>15.158448984905505</v>
+        <v>15.056943669390984</v>
       </c>
       <c r="D12" s="78">
         <f>B12/Einstellungen!B54</f>
-        <v>0.75792244924527519</v>
+        <v>0.75284718346954915</v>
       </c>
       <c r="E12" s="34">
         <f>B12/Einstellungen!B55</f>
-        <v>6.3160204103772932E-2</v>
+        <v>6.2737265289129096E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -15643,19 +15643,19 @@
       </c>
       <c r="B13" s="78">
         <f>Spezifikation!J3+(0.52*Spezifikation!M3)</f>
-        <v>121.91659110882755</v>
+        <v>121.12754265866593</v>
       </c>
       <c r="C13" s="78">
         <f>B13/Einstellungen!B53</f>
-        <v>15.239573888603443</v>
+        <v>15.140942832333241</v>
       </c>
       <c r="D13" s="78">
         <f>B13/Einstellungen!B54</f>
-        <v>0.76197869443017219</v>
+        <v>0.75704714161666209</v>
       </c>
       <c r="E13" s="34">
         <f>B13/Einstellungen!B55</f>
-        <v>6.3498224535847678E-2</v>
+        <v>6.3087261801388503E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -15664,19 +15664,19 @@
       </c>
       <c r="B14" s="80">
         <f>Spezifikation!J3+(0.67*Spezifikation!M3)</f>
-        <v>122.27714623637395</v>
+        <v>121.50087227174264</v>
       </c>
       <c r="C14" s="80">
         <f>B14/Einstellungen!B53</f>
-        <v>15.284643279546744</v>
+        <v>15.18760903396783</v>
       </c>
       <c r="D14" s="80">
         <f>B14/Einstellungen!B54</f>
-        <v>0.76423216397733718</v>
+        <v>0.75938045169839152</v>
       </c>
       <c r="E14" s="81">
         <f>B14/Einstellungen!B55</f>
-        <v>6.3686013664778093E-2</v>
+        <v>6.3281704308199294E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -15685,19 +15685,19 @@
       </c>
       <c r="B15" s="78">
         <f>Spezifikation!J3+(0.84*Spezifikation!M3)</f>
-        <v>122.68577538092653</v>
+        <v>121.9239791665629</v>
       </c>
       <c r="C15" s="78">
         <f>B15/Einstellungen!B53</f>
-        <v>15.335721922615816</v>
+        <v>15.240497395820363</v>
       </c>
       <c r="D15" s="78">
         <f>B15/Einstellungen!B54</f>
-        <v>0.76678609613079085</v>
+        <v>0.76202486979101813</v>
       </c>
       <c r="E15" s="34">
         <f>B15/Einstellungen!B55</f>
-        <v>6.3898841344232571E-2</v>
+        <v>6.350207248258484E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -15706,19 +15706,19 @@
       </c>
       <c r="B16" s="78">
         <f>Spezifikation!J3+(1*Spezifikation!M3)</f>
-        <v>123.07036751697602</v>
+        <v>122.32219742051139</v>
       </c>
       <c r="C16" s="78">
         <f>B16/Einstellungen!B53</f>
-        <v>15.383795939622003</v>
+        <v>15.290274677563923</v>
       </c>
       <c r="D16" s="78">
         <f>B16/Einstellungen!B54</f>
-        <v>0.76918979698110013</v>
+        <v>0.76451373387819621</v>
       </c>
       <c r="E16" s="34">
         <f>B16/Einstellungen!B55</f>
-        <v>6.4099149748425011E-2</v>
+        <v>6.3709477823183008E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -15727,19 +15727,19 @@
       </c>
       <c r="B17" s="78">
         <f>Spezifikation!J3+(1.28*Spezifikation!M3)</f>
-        <v>123.74340375506263</v>
+        <v>123.01907936492123</v>
       </c>
       <c r="C17" s="78">
         <f>B17/Einstellungen!B53</f>
-        <v>15.467925469382829</v>
+        <v>15.377384920615153</v>
       </c>
       <c r="D17" s="78">
         <f>B17/Einstellungen!B54</f>
-        <v>0.77339627346914142</v>
+        <v>0.76886924603075768</v>
       </c>
       <c r="E17" s="34">
         <f>B17/Einstellungen!B55</f>
-        <v>6.444968945576178E-2</v>
+        <v>6.4072437169229807E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -15748,19 +15748,19 @@
       </c>
       <c r="B18" s="83">
         <f>Spezifikation!J3+(2*Spezifikation!M3)</f>
-        <v>125.47406836728535</v>
+        <v>124.8110615076894</v>
       </c>
       <c r="C18" s="83">
         <f>B18/Einstellungen!B53</f>
-        <v>15.684258545910669</v>
+        <v>15.601382688461175</v>
       </c>
       <c r="D18" s="83">
         <f>B18/Einstellungen!B54</f>
-        <v>0.78421292729553349</v>
+        <v>0.78006913442305881</v>
       </c>
       <c r="E18" s="84">
         <f>B18/Einstellungen!B55</f>
-        <v>6.5351077274627786E-2</v>
+        <v>6.5005761201921558E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="7.5" customHeight="1"/>
@@ -15900,19 +15900,19 @@
       </c>
       <c r="C14" s="62">
         <f>Aufwandschätzung!B8</f>
-        <v>119.05618709695945</v>
+        <v>118.16579439492411</v>
       </c>
       <c r="D14" s="62">
         <f>Aufwandschätzung!B11</f>
-        <v>120.6666666666667</v>
+        <v>119.83333333333337</v>
       </c>
       <c r="E14" s="62">
         <f>Aufwandschätzung!B14</f>
-        <v>122.27714623637395</v>
+        <v>121.50087227174264</v>
       </c>
       <c r="F14" s="63">
         <f>Aufwandschätzung!B18</f>
-        <v>125.47406836728535</v>
+        <v>124.8110615076894</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -15921,19 +15921,19 @@
       </c>
       <c r="C15" s="64">
         <f>C14/C6</f>
-        <v>15.461842480124604</v>
+        <v>15.346207064275857</v>
       </c>
       <c r="D15" s="64">
         <f>D14/C6</f>
-        <v>15.670995670995675</v>
+        <v>15.562770562770567</v>
       </c>
       <c r="E15" s="64">
         <f>E14/C6</f>
-        <v>15.880148861866747</v>
+        <v>15.779334061265278</v>
       </c>
       <c r="F15" s="65">
         <f>F14/C6</f>
-        <v>16.295333554192904</v>
+        <v>16.209228767232389</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -15983,19 +15983,19 @@
       </c>
       <c r="C19" s="68">
         <f>(C5*C14)+C16+C17</f>
-        <v>16548.810006477364</v>
+        <v>16425.04542089445</v>
       </c>
       <c r="D19" s="68">
         <f>(C5*D14)+D16+D17</f>
-        <v>16772.666666666672</v>
+        <v>16656.833333333339</v>
       </c>
       <c r="E19" s="68">
         <f>(C5*E14)+E16+E17</f>
-        <v>16996.523326855979</v>
+        <v>16888.621245772225</v>
       </c>
       <c r="F19" s="69">
         <f>(C5*F14)+F16+F17</f>
-        <v>17440.895503052663</v>
+        <v>17348.737549568828</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="51">
@@ -16866,15 +16866,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA39AF47FDE84445B2A1A204EB607015" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="02d257b5fc73ffec8ca48af1d6f0ac4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="025d22c0-f634-4698-b91b-a929f7363a0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9eef9cb57a7ecff21c60d28da668db25" ns2:_="">
     <xsd:import namespace="025d22c0-f634-4698-b91b-a929f7363a0d"/>
@@ -17052,6 +17043,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C8B9A1-CF49-4753-98D3-CDFF9713AD0B}">
   <ds:schemaRefs/>
@@ -17059,13 +17059,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F155915-390F-4DB1-8323-6D9C71B4FD2C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C4F521-E81F-4050-A011-79AAC4B11AEB}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C4F521-E81F-4050-A011-79AAC4B11AEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F155915-390F-4DB1-8323-6D9C71B4FD2C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>